--- a/Statistics/100m Butterfly_statistics.xlsx
+++ b/Statistics/100m Butterfly_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1141,25 +1141,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Thomas Johansen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.02,09</t>
+          <t>1.02,50</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>31.10.2016</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1176,12 +1176,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Thomas Johansen</t>
+          <t>Kristoffer Loeng</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.02,50</t>
+          <t>1.02,52</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31.10.2016</t>
+          <t>16.01.2016</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1211,20 +1211,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kristoffer Loeng</t>
+          <t>Eirik Hakvåg-Sandengen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.02,52</t>
+          <t>1.03,13</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16.01.2016</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eirik Hakvåg-Sandengen</t>
+          <t>Jonas Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1281,25 +1281,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jonas Fiskaa Barstad</t>
+          <t>Øivind Martin Hasle</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.03,13</t>
+          <t>1.03,33</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>16.09.2006</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1316,25 +1316,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Øivind Martin Hasle</t>
+          <t>Sindre Søderlund</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.03,33</t>
+          <t>1.03,78</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16.09.2006</t>
+          <t>04.10.2008</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1351,20 +1351,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sindre Søderlund</t>
+          <t>Margaret Kjøraas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.03,78</t>
+          <t>1.12,22</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04.10.2008</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1386,12 +1386,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Margaret Kjøraas</t>
+          <t>Robert Tellefsen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.12,22</t>
+          <t>1.03,84</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>09.04.2016</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1421,25 +1421,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Robert Tellefsen</t>
+          <t>Balder Baarholm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.03,84</t>
+          <t>1.03,91</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>09.04.2016</t>
+          <t>08.06.2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1456,25 +1456,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Balder Baarholm</t>
+          <t>Brage Wetjen Sigernes</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.03,91</t>
+          <t>1.04,06</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>08.06.2025</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1491,12 +1491,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brage Wetjen Sigernes</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.04,06</t>
+          <t>1.04,10</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1526,20 +1526,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>Leo Petter Hauge Sølvberg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.04,10</t>
+          <t>1.04,11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1561,20 +1561,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Leo Petter Hauge Sølvberg</t>
+          <t>Sander Haugan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.04,11</t>
+          <t>1.04,35</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1596,25 +1596,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sander Haugan</t>
+          <t>Scott Rene Høgenhaug</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.04,35</t>
+          <t>1.04,48</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>29.01.2017</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1631,25 +1631,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Scott Rene Høgenhaug</t>
+          <t>Christoffer Solberg Jørgensen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.04,48</t>
+          <t>1.04,56</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>29.01.2017</t>
+          <t>04.10.2014</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1666,12 +1666,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Christoffer Solberg Jørgensen</t>
+          <t>Sebastian Amundsen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.04,56</t>
+          <t>1.04,54</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>04.10.2014</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1736,25 +1736,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sebastian Amundsen</t>
+          <t>Johan Hjelseth Storstad</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.04,54</t>
+          <t>1.04,91</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>16.03.2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1771,25 +1771,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Johan Hjelseth Storstad</t>
+          <t>Sebastian Olafsson</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.04,91</t>
+          <t>1.05,06</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16.03.2019</t>
+          <t>31.10.2016</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1806,25 +1806,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sebastian Olafsson</t>
+          <t>Simen Dahl Stensaas</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.05,06</t>
+          <t>1.05,10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>31.10.2016</t>
+          <t>07.02.2015</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1841,25 +1841,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Simen Dahl Stensaas</t>
+          <t>Simen Løvås</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.05,10</t>
+          <t>1.05,21</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>07.02.2015</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1876,25 +1876,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Simen Løvås</t>
+          <t>Simon Moe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.05,21</t>
+          <t>1.05,31</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>08.10.2016</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1911,25 +1911,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Simon Moe</t>
+          <t>Morten Olden Larsen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.05,31</t>
+          <t>1.05,41</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08.10.2016</t>
+          <t>17.01.2015</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1946,20 +1946,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Morten Olden Larsen</t>
+          <t>Tudor Ignat</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.05,41</t>
+          <t>1.05,53</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17.01.2015</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1981,20 +1981,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tudor Ignat</t>
+          <t>Daniel Moen Manriquez</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.05,53</t>
+          <t>1.05,88</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>10.02.2018</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2016,20 +2016,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daniel Moen Manriquez</t>
+          <t>Thomas Trøite</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.05,88</t>
+          <t>1.06,12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.02.2018</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2051,20 +2051,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Thomas Trøite</t>
+          <t>Ask Yifei Baldersheim</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.06,12</t>
+          <t>1.06,17</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>13.11.2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2086,20 +2086,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ask Yifei Baldersheim</t>
+          <t>Kjersti Arefjord</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.06,17</t>
+          <t>1.15,33</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13.11.2021</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2121,16 +2121,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kjersti Arefjord</t>
+          <t>Maxim Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.15,33</t>
+          <t>1.06,63</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2156,12 +2156,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Maxim Sergeevich Gorodkov</t>
+          <t>Jenny Marandon Natvik</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.06,63</t>
+          <t>1.15,40</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>14.03.2015</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2191,25 +2191,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jenny Marandon Natvik</t>
+          <t>Erlend Skogland</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.15,40</t>
+          <t>1.06,87</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14.03.2015</t>
+          <t>22.01.2011</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2226,20 +2226,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Erlend Skogland</t>
+          <t>Joakim I. Larsen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.06,87</t>
+          <t>1.07,07</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>22.01.2011</t>
+          <t>24.01.2009</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2261,20 +2261,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Joakim I. Larsen</t>
+          <t>Tor Arne Hegvik</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.07,07</t>
+          <t>1.08,08</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24.01.2009</t>
+          <t>16.09.2007</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2296,12 +2296,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tor Arne Hegvik</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.08,08</t>
+          <t>1.08,11</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.09.2007</t>
+          <t>30.09.2017</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2471,12 +2471,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vetle Henriksen</t>
+          <t>Joakim Gjerde</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.09,41</t>
+          <t>1.09,40</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>18.04.2010</t>
+          <t>05.12.2015</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sognsvann</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2506,12 +2506,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Joakim Gjerde</t>
+          <t>Vetle Henriksen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.09,40</t>
+          <t>1.09,41</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>05.12.2015</t>
+          <t>18.04.2010</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sognsvann</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2541,12 +2541,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hasith Ransiri Attanapola</t>
+          <t>Andreas Aglen Alsos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.09,43</t>
+          <t>1.09,47</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2554,12 +2554,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>01.12.2018</t>
+          <t>18.03.2023</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2576,12 +2576,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Andreas Aglen Alsos</t>
+          <t>Hasith Ransiri Attanapola</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.09,47</t>
+          <t>1.09,43</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>18.03.2023</t>
+          <t>01.12.2018</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2646,12 +2646,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Einar Woldseth</t>
+          <t>Hans Ourson Liem</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.10,29</t>
+          <t>1.10,26</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>06.06.2022</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2681,12 +2681,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hans Ourson Liem</t>
+          <t>Einar Woldseth</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.10,26</t>
+          <t>1.10,29</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>06.06.2022</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3976,12 +3976,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Lionel Nicolas Weissbrodt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.29,44</t>
+          <t>1.19,05</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3989,12 +3989,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>29.10.2011</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4011,12 +4011,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lionel Nicolas Weissbrodt</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1.19,05</t>
+          <t>1.29,44</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>29.10.2011</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4221,12 +4221,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Johan Mostervik</t>
+          <t>Kristin Myhr Pettersen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1.20,97</t>
+          <t>1.31,61</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10.02.2018</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4256,12 +4256,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kristin Myhr Pettersen</t>
+          <t>Johan Mostervik</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1.31,61</t>
+          <t>1.20,97</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>10.02.2018</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4536,12 +4536,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Anton Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.23,70</t>
+          <t>1.23,69</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>07.02.2015</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4571,12 +4571,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Anton Sergeevich Gorodkov</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.23,69</t>
+          <t>1.23,70</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>07.02.2015</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5586,12 +5586,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.44,76</t>
+          <t>1.44,87</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>09.01.2015</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5621,12 +5621,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.44,87</t>
+          <t>1.44,76</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>09.01.2015</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5656,12 +5656,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.45,33</t>
+          <t>1.45,35</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>07.02.2014</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5691,12 +5691,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.45,35</t>
+          <t>1.45,33</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5704,12 +5704,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>07.02.2014</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7042,25 +7042,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.01,35</t>
+          <t>1.01,77</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.07.2018</t>
+          <t>04.07.2015</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tøyen</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -7077,25 +7077,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Elias Hauge Lien</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.01,77</t>
+          <t>1.02,46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>04.07.2015</t>
+          <t>01.07.2023</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -7112,25 +7112,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Elias Hauge Lien</t>
+          <t>Thomas Johansen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.02,46</t>
+          <t>1.03,37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>01.07.2023</t>
+          <t>05.03.2016</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -7147,25 +7147,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Thomas Johansen</t>
+          <t>Jonas Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.03,37</t>
+          <t>1.03,79</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05.03.2016</t>
+          <t>15.04.2018</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -7182,25 +7182,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jonas Fiskaa Barstad</t>
+          <t>Emil Vindvik</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.03,79</t>
+          <t>1.04,75</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.04.2018</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7217,12 +7217,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Emil Vindvik</t>
+          <t>Kristoffer Loeng</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.04,75</t>
+          <t>1.04,74</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -7230,12 +7230,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>01.07.2018</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7252,25 +7252,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kristoffer Loeng</t>
+          <t>Christoffer Tofte Haarsaker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.04,74</t>
+          <t>1.05,24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>01.07.2018</t>
+          <t>16.06.2013</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7287,25 +7287,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Christoffer Tofte Haarsaker</t>
+          <t>Mikael Amundsen Fjeld</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.05,24</t>
+          <t>1.05,33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16.06.2013</t>
+          <t>08.06.2007</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7322,25 +7322,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mikael Amundsen Fjeld</t>
+          <t>Brage Wetjen Sigernes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.05,33</t>
+          <t>1.05,89</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08.06.2007</t>
+          <t>13.04.2024</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7357,25 +7357,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brage Wetjen Sigernes</t>
+          <t>Sindre Søderlund</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.05,89</t>
+          <t>1.06,07</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.04.2024</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7392,25 +7392,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sindre Søderlund</t>
+          <t>Christoffer Solberg Jørgensen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.06,07</t>
+          <t>1.06,47</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>13.06.2015</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7462,25 +7462,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Christoffer Solberg Jørgensen</t>
+          <t>Vegard Skjervold</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.06,47</t>
+          <t>1.06,84</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13.06.2015</t>
+          <t>07.04.2019</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -7497,25 +7497,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vegard Skjervold</t>
+          <t>Daniel Moen Manriquez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.06,84</t>
+          <t>1.07,34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>07.04.2019</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -7532,25 +7532,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Daniel Moen Manriquez</t>
+          <t>Morten Olden Larsen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.07,34</t>
+          <t>1.07,48</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>28.02.2015</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -7567,20 +7567,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Morten Olden Larsen</t>
+          <t>Joakim I. Larsen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.07,48</t>
+          <t>1.07,76</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28.02.2015</t>
+          <t>07.03.2009</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7602,25 +7602,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Joakim I. Larsen</t>
+          <t>Leo Petter Hauge Sølvberg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.07,76</t>
+          <t>1.08,13</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07.03.2009</t>
+          <t>07.04.2019</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -7637,25 +7637,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Leo Petter Hauge Sølvberg</t>
+          <t>Johan Hjelseth Storstad</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.08,13</t>
+          <t>1.08,36</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07.04.2019</t>
+          <t>29.06.2019</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -7672,25 +7672,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Johan Hjelseth Storstad</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.08,36</t>
+          <t>1.08,40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>29.06.2019</t>
+          <t>24.01.2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -7707,12 +7707,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>Balder Baarholm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.08,40</t>
+          <t>1.08,43</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>24.01.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7742,25 +7742,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Balder Baarholm</t>
+          <t>Tor Arne Hegvik</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.08,43</t>
+          <t>1.08,52</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>08.03.2008</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -7777,25 +7777,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tor Arne Hegvik</t>
+          <t>Sebastian Amundsen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.08,52</t>
+          <t>1.09,17</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08.03.2008</t>
+          <t>30.03.2019</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -7812,25 +7812,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sebastian Amundsen</t>
+          <t>Eirik Hakvåg-Sandengen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.09,17</t>
+          <t>1.09,32</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>30.03.2019</t>
+          <t>05.04.2025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -7847,25 +7847,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Eirik Hakvåg-Sandengen</t>
+          <t>Joakim Gjerde</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.09,32</t>
+          <t>1.09,77</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>05.04.2025</t>
+          <t>27.06.2015</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -7882,20 +7882,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Joakim Gjerde</t>
+          <t>Einar Woldseth</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.09,77</t>
+          <t>1.10,30</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>27.06.2015</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7917,25 +7917,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Einar Woldseth</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.10,30</t>
+          <t>1.10,49</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>09.07.2017</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -9492,12 +9492,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.34,42</t>
+          <t>1.45,91</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -9505,12 +9505,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9527,12 +9527,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.45,91</t>
+          <t>1.34,42</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9850,7 +9850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10489,12 +10489,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sara Juul Wolfgang</t>
+          <t>Rebekka Wangberg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.10,15</t>
+          <t>1.10,13</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -10502,12 +10502,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>01.12.2013</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -10524,12 +10524,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rebekka Wangberg</t>
+          <t>Sara Juul Wolfgang</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.10,13</t>
+          <t>1.10,15</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -10537,12 +10537,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>01.12.2013</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11329,7 +11329,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Carina Aadahl</t>
+          <t>Torborg Duesten Blokkum</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -11342,12 +11342,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>07.02.2015</t>
+          <t>02.04.2011</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -11364,7 +11364,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Torborg Duesten Blokkum</t>
+          <t>Carina Aadahl</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -11377,12 +11377,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>02.04.2011</t>
+          <t>07.02.2015</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -11469,7 +11469,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Tage Singstad</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -11482,12 +11482,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>30.09.2017</t>
+          <t>10.04.2011</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -11504,20 +11504,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tage Singstad</t>
+          <t>Camilla Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.08,11</t>
+          <t>1.17,09</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.04.2011</t>
+          <t>07.02.2015</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -11539,12 +11539,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Camilla Dahle-Øfsti</t>
+          <t>Vilde Austmo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.17,09</t>
+          <t>1.17,12</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -11552,12 +11552,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>07.02.2015</t>
+          <t>10.02.2018</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -11574,25 +11574,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Vilde Austmo</t>
+          <t>Sissel Furuholt Valle</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.17,12</t>
+          <t>1.17,22</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.02.2018</t>
+          <t>08.06.2025</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -11609,25 +11609,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sissel Furuholt Valle</t>
+          <t>Heidi Elisabeth Ysland</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.17,22</t>
+          <t>1.17,34</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>08.06.2025</t>
+          <t>11.02.2017</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -11644,25 +11644,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Heidi Elisabeth Ysland</t>
+          <t>Diana Stafsnes Califano</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.17,34</t>
+          <t>1.17,54</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11.02.2017</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11679,25 +11679,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Diana Stafsnes Califano</t>
+          <t>Embla Mimi Baarholm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.17,54</t>
+          <t>1.17,71</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>16.03.2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -11714,25 +11714,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Embla Mimi Baarholm</t>
+          <t>Solveig Natvig Løvseth</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.17,71</t>
+          <t>1.17,76</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.03.2019</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -11784,25 +11784,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Solveig Natvig Løvseth</t>
+          <t>Irja Gravdahl</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.17,76</t>
+          <t>1.18,43</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>20.11.2010</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -11819,25 +11819,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Irja Gravdahl</t>
+          <t>Ingrid Elverum</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.18,43</t>
+          <t>1.19,01</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>20.11.2010</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -11854,12 +11854,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ingrid Elverum</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.19,01</t>
+          <t>1.18,95</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -11867,12 +11867,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>04.12.2022</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -11889,25 +11889,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Oda Sem Austmo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.18,95</t>
+          <t>1.19,82</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>04.12.2022</t>
+          <t>05.10.2013</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -11924,20 +11924,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Oda Sem Austmo</t>
+          <t>Inga Maren Steinsdotter Nestgaard</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.19,82</t>
+          <t>1.19,93</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>05.10.2013</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -11959,20 +11959,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Inga Maren Steinsdotter Nestgaard</t>
+          <t>Malin Schanke Tømmervik</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.19,93</t>
+          <t>1.20,07</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>19.06.2010</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11994,20 +11994,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Malin Schanke Tømmervik</t>
+          <t>Helene Rapp Karlsen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.20,07</t>
+          <t>1.20,13</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>19.06.2010</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -12029,12 +12029,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Helene Rapp Karlsen</t>
+          <t>Helle Krogstad</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.20,13</t>
+          <t>1.20,20</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -12042,12 +12042,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>09.02.2008</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -12064,25 +12064,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Helle Krogstad</t>
+          <t>Dorottya Csejtey</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.20,20</t>
+          <t>1.20,50</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09.02.2008</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -12099,25 +12099,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dorottya Csejtey</t>
+          <t>Lisa Ling Klauseth Liasjø</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.20,50</t>
+          <t>1.20,58</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>19.10.2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -12134,12 +12134,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lisa Ling Klauseth Liasjø</t>
+          <t>Erle Kullerud Ytrehus</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.20,58</t>
+          <t>1.20,62</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -12147,12 +12147,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>19.10.2019</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -12169,25 +12169,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Erle Kullerud Ytrehus</t>
+          <t>Marthe Kalvik</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.20,62</t>
+          <t>1.20,70</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>25.01.2008</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -12204,25 +12204,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Marthe Kalvik</t>
+          <t>Ada Fludal Osland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.20,70</t>
+          <t>1.20,88</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>25.01.2008</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12239,25 +12239,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ada Fludal Osland</t>
+          <t>Marie Skuseth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.20,88</t>
+          <t>1.21,02</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -12274,25 +12274,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Marie Skuseth</t>
+          <t>Nora Yian Baldersheim</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.21,02</t>
+          <t>1.21,11</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>19.03.2022</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Orkanger</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -12309,25 +12309,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nora Yian Baldersheim</t>
+          <t>Hedda Fosseng Traa</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.21,11</t>
+          <t>1.21,30</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>19.03.2022</t>
+          <t>07.02.2015</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Orkanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -12344,20 +12344,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hedda Fosseng Traa</t>
+          <t>Silje Aadahl</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.21,30</t>
+          <t>1.21,44</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>07.02.2015</t>
+          <t>11.02.2017</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -12379,25 +12379,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Silje Aadahl</t>
+          <t>Annika Krill</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.21,44</t>
+          <t>1.21,64</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>11.02.2017</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -12414,20 +12414,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Annika Krill</t>
+          <t>Ane Viken Refseth</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.21,64</t>
+          <t>1.22,22</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>31.10.2015</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -12449,25 +12449,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ane Viken Refseth</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.22,22</t>
+          <t>1.12,76</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>31.10.2015</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -12519,25 +12519,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Linn Amalie Aresvik</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.12,76</t>
+          <t>1.22,68</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>03.11.2012</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -12554,20 +12554,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Linn Amalie Aresvik</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.22,68</t>
+          <t>1.22,77</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>22.01.2010</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -12589,25 +12589,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Julie Hegvik</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.22,77</t>
+          <t>1.22,95</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22.01.2010</t>
+          <t>19.10.2007</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -12624,25 +12624,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Julie Hegvik</t>
+          <t>Ada Viken Refseth</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.22,95</t>
+          <t>1.23,07</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>19.10.2007</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -12659,20 +12659,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ada Viken Refseth</t>
+          <t>Marcelina Puzio</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.23,07</t>
+          <t>1.23,60</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>29.03.2025</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -12694,25 +12694,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Marcelina Puzio</t>
+          <t>Emma Lu Tjeldvoll</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.23,60</t>
+          <t>1.23,65</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>29.03.2025</t>
+          <t>22.10.2022</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -12729,25 +12729,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Emma Lu Tjeldvoll</t>
+          <t>Othelie Annette Høie</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.23,65</t>
+          <t>1.23,80</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>22.10.2022</t>
+          <t>17.01.2015</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -12764,20 +12764,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Othelie Annette Høie</t>
+          <t>Olivia Sterud Prytz</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.23,80</t>
+          <t>1.24,34</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17.01.2015</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12799,25 +12799,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Olivia Sterud Prytz</t>
+          <t>Erika Nicole Hagen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.24,34</t>
+          <t>1.24,37</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>19.03.2022</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Orkanger</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -12834,25 +12834,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Erika Nicole Hagen</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.24,37</t>
+          <t>1.24,79</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>19.03.2022</t>
+          <t>04.09.2021</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Orkanger</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -12869,25 +12869,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Thea Lervold Høffler</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.24,79</t>
+          <t>1.24,96</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>04.09.2021</t>
+          <t>06.02.2016</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -12904,25 +12904,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Thea Lervold Høffler</t>
+          <t>Mari Helen Hammer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.24,96</t>
+          <t>1.25,05</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>06.02.2016</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -12939,12 +12939,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mari Helen Hammer</t>
+          <t>Hanne Søyseth</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.25,05</t>
+          <t>1.25,12</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>16.01.2016</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -12974,25 +12974,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hanne Søyseth</t>
+          <t>Hedda Grimstad-Johannessen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.25,12</t>
+          <t>1.25,22</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16.01.2016</t>
+          <t>04.09.2021</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -13009,25 +13009,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hedda Grimstad-Johannessen</t>
+          <t>Julie Wiik Arnesen</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.25,22</t>
+          <t>1.26,11</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>04.09.2021</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -13044,25 +13044,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Julie Wiik Arnesen</t>
+          <t>Ola vatn Gundersen</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.26,11</t>
+          <t>1.16,18</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -13079,25 +13079,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ola vatn Gundersen</t>
+          <t>Isabella Johanne Debik</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.16,18</t>
+          <t>1.26,32</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -13114,25 +13114,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Isabella Johanne Debik</t>
+          <t>Marthe Eline Waagø-Hansen</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.26,32</t>
+          <t>1.26,41</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>07.10.2006</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -13149,20 +13149,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Marthe Eline Waagø-Hansen</t>
+          <t>Emilie Ying Ulstad Hovland</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.26,41</t>
+          <t>1.26,66</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>07.10.2006</t>
+          <t>28.03.2025</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -13184,12 +13184,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Emilie Ying Ulstad Hovland</t>
+          <t>Thora Bjarnøe Brandsegg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.26,66</t>
+          <t>1.26,63</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -13197,12 +13197,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>28.03.2025</t>
+          <t>19.03.2022</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Orkanger</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -13219,25 +13219,25 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Thora Bjarnøe Brandsegg</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.26,63</t>
+          <t>1.28,05</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>19.03.2022</t>
+          <t>23.10.2021</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Orkanger</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -13254,25 +13254,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Kine Marie Sørensen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.28,05</t>
+          <t>1.28,12</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.10.2021</t>
+          <t>17.04.2005</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -13289,25 +13289,25 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kine Marie Sørensen</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.28,12</t>
+          <t>1.28,56</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>17.04.2005</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -13324,25 +13324,25 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Alisa Kulagina</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.28,56</t>
+          <t>1.29,23</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -13359,25 +13359,25 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Alisa Kulagina</t>
+          <t>Frida Pauline Busch</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1.29,23</t>
+          <t>1.29,27</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>13.02.2022</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -13394,25 +13394,25 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Frida Pauline Busch</t>
+          <t>Guro Rønningen Osmoen</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.29,27</t>
+          <t>1.29,43</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13.02.2022</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -13429,25 +13429,25 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Guro Rønningen Osmoen</t>
+          <t>Izabele Farias Ribeiro</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1.29,43</t>
+          <t>1.29,72</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>07.02.2015</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -13464,25 +13464,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Izabele Farias Ribeiro</t>
+          <t>Hansine Rindberg Monsø</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1.29,72</t>
+          <t>1.29,92</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>07.02.2015</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -13499,25 +13499,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hansine Rindberg Monsø</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.29,92</t>
+          <t>1.30,43</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -13569,25 +13569,25 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1.30,43</t>
+          <t>1.30,55</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -13604,25 +13604,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Anna Svendsen</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.30,55</t>
+          <t>1.30,68</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>16.03.2019</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -13639,25 +13639,25 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Anna Svendsen</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1.30,68</t>
+          <t>1.32,04</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>16.03.2019</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -13674,20 +13674,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Anahita Koushan</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1.32,04</t>
+          <t>1.32,72</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -13709,20 +13709,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Anahita Koushan</t>
+          <t>Elisaveta Røste</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1.32,72</t>
+          <t>1.32,86</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -13744,20 +13744,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Elisaveta Røste</t>
+          <t>Ingrid Johansen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.32,86</t>
+          <t>1.33,16</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>13.01.2007</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -13814,20 +13814,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ingrid Johansen</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.33,16</t>
+          <t>1.22,51</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13.01.2007</t>
+          <t>09.02.2013</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -13849,20 +13849,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Anita Klungervik</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.22,51</t>
+          <t>1.33,53</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>09.02.2013</t>
+          <t>26.01.2024</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -13884,25 +13884,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Anita Klungervik</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.33,53</t>
+          <t>1.35,22</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13954,25 +13954,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.35,22</t>
+          <t>1.36,35</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13989,20 +13989,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.36,35</t>
+          <t>1.36,95</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -14024,25 +14024,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.36,95</t>
+          <t>1.37,08</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>03.03.2018</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -14059,25 +14059,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Alexandra Contreras Jimenez</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.37,08</t>
+          <t>1.37,37</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>03.03.2018</t>
+          <t>03.12.2023</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -14094,25 +14094,25 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Alexandra Contreras Jimenez</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.37,37</t>
+          <t>1.37,44</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -14129,12 +14129,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.37,44</t>
+          <t>1.37,40</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -14142,12 +14142,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -14164,25 +14164,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Sara Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.37,40</t>
+          <t>1.37,62</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>07.02.2014</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -14199,25 +14199,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sara Skaalvik Trelstad</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.37,62</t>
+          <t>1.38,10</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>07.02.2014</t>
+          <t>20.05.2006</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -14234,20 +14234,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Amalie Solvoll</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.38,10</t>
+          <t>1.38,18</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>20.05.2006</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -14269,25 +14269,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Amalie Solvoll</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.38,18</t>
+          <t>1.38,87</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -14304,25 +14304,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.38,87</t>
+          <t>1.39,31</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -14339,12 +14339,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.39,31</t>
+          <t>1.39,30</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -14352,12 +14352,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>11.02.2023</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -14374,25 +14374,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Sofie Hepsø</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.39,30</t>
+          <t>1.39,66</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>11.02.2023</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -14409,25 +14409,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sofie Hepsø</t>
+          <t>Line Steine Bertelsen</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.39,66</t>
+          <t>1.40,02</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>20.11.2021</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14444,25 +14444,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Line Steine Bertelsen</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.40,02</t>
+          <t>1.40,49</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>20.11.2021</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14479,25 +14479,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.40,49</t>
+          <t>1.41,13</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14514,25 +14514,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.41,13</t>
+          <t>1.43,03</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14549,20 +14549,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Marte Hemmer</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.43,03</t>
+          <t>1.43,90</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>14.01.2005</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -14584,25 +14584,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Marte Hemmer</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.43,90</t>
+          <t>1.44,61</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14.01.2005</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14619,25 +14619,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Amalie Gylseth Dahl</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.44,61</t>
+          <t>1.45,39</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>03.12.2023</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14689,25 +14689,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Amalie Gylseth Dahl</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.45,39</t>
+          <t>1.45,66</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
+          <t>26.10.2019</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14724,25 +14724,25 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.45,66</t>
+          <t>1.46,39</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>26.10.2019</t>
+          <t>23.11.2013</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -14759,20 +14759,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.46,39</t>
+          <t>1.46,55</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>23.11.2013</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -14794,25 +14794,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.46,55</t>
+          <t>1.46,92</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>18.03.2023</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14829,20 +14829,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.46,92</t>
+          <t>1.48,12</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>18.03.2023</t>
+          <t>03.11.2012</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -14864,20 +14864,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.48,12</t>
+          <t>1.52,85</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>13.02.2011</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -14899,25 +14899,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.52,85</t>
+          <t>1.54,25</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>13.02.2011</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -14934,25 +14934,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.54,25</t>
+          <t>1.54,88</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>28.09.2019</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -14969,25 +14969,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.54,88</t>
+          <t>1.41,70</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>28.09.2019</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15004,20 +15004,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Luma Nicole Farias Kristiansen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.41,70</t>
+          <t>1.56,41</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -15039,25 +15039,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Luma Nicole Farias Kristiansen</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.56,41</t>
+          <t>1.58,19</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15074,25 +15074,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Camila Dorao</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.58,19</t>
+          <t>1.59,63</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15109,25 +15109,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Camila Dorao</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.59,63</t>
+          <t>1.59,76</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -15144,25 +15144,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Ella Katrine Lind Bøckman</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.59,76</t>
+          <t>2.00,63</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -15179,25 +15179,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ella Katrine Lind Bøckman</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2.00,63</t>
+          <t>2.02,91</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -15214,25 +15214,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2.02,91</t>
+          <t>2.03,19</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -15249,25 +15249,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Oda Emilie Krogh</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2.03,19</t>
+          <t>2.07,49</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>13.11.2021</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -15284,25 +15284,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Oda Emilie Krogh</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2.07,49</t>
+          <t>2.08,27</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>13.11.2021</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -15319,12 +15319,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2.08,27</t>
+          <t>2.08,56</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>01.11.2014</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -15354,20 +15354,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2.08,56</t>
+          <t>2.08,76</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>01.11.2014</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -15389,25 +15389,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2.08,76</t>
+          <t>2.18,26</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>18.04.2009</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -15424,25 +15424,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2.18,26</t>
+          <t>2.23,77</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>18.04.2009</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -15459,25 +15459,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2.23,77</t>
+          <t>2.25,16</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -15486,41 +15486,6 @@
         </is>
       </c>
       <c r="G161" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Camilla Gervasoni</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2.25,16</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>51</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>03.12.2011</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Stjørdal</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -15537,7 +15502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16775,12 +16740,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Kirsti Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.19,00</t>
+          <t>1.18,99</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -16788,12 +16753,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>02.07.2022</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -16810,12 +16775,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kirsti Bjørnsdatter Paulsen</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.18,99</t>
+          <t>1.19,00</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -16823,12 +16788,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>02.07.2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -16845,25 +16810,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Inga Maren Steinsdotter Nestgaard</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.10,49</t>
+          <t>1.19,16</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09.07.2017</t>
+          <t>02.07.2016</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -16880,12 +16845,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Inga Maren Steinsdotter Nestgaard</t>
+          <t>Stine Tveit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.19,16</t>
+          <t>1.19,18</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -16893,12 +16858,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>02.07.2016</t>
+          <t>25.04.2009</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -16915,25 +16880,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stine Tveit</t>
+          <t>Mila Maria Flåan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.19,18</t>
+          <t>1.19,31</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>25.04.2009</t>
+          <t>21.04.2023</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -16950,20 +16915,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mila Maria Flåan</t>
+          <t>Elisabeth Wilmann</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.19,31</t>
+          <t>1.19,72</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21.04.2023</t>
+          <t>15.04.2018</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -16985,25 +16950,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Elisabeth Wilmann</t>
+          <t>Hege Solberg Jørgensen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.19,72</t>
+          <t>1.19,87</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15.04.2018</t>
+          <t>09.07.2017</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -17020,25 +16985,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hege Solberg Jørgensen</t>
+          <t>Carina Aadahl</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.19,87</t>
+          <t>1.20,32</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09.07.2017</t>
+          <t>27.06.2015</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -17055,25 +17020,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Carina Aadahl</t>
+          <t>Irja Gravdahl</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.20,32</t>
+          <t>1.20,39</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>27.06.2015</t>
+          <t>04.03.2011</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -17090,25 +17055,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Irja Gravdahl</t>
+          <t>Solveig Natvig Løvseth</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.20,39</t>
+          <t>1.20,61</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>04.03.2011</t>
+          <t>04.05.2014</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -17125,25 +17090,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Solveig Natvig Løvseth</t>
+          <t>Vilde Austmo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.20,61</t>
+          <t>1.21,43</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>04.05.2014</t>
+          <t>15.04.2018</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -17160,25 +17125,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vilde Austmo</t>
+          <t>Miriam Vedvik</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.21,43</t>
+          <t>1.21,72</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15.04.2018</t>
+          <t>08.06.2007</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -17195,25 +17160,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Miriam Vedvik</t>
+          <t>Embla Mimi Baarholm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.21,72</t>
+          <t>1.22,62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>08.06.2007</t>
+          <t>07.04.2019</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -17230,25 +17195,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Embla Mimi Baarholm</t>
+          <t>Diana Stafsnes Califano</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.22,62</t>
+          <t>1.23,04</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>07.04.2019</t>
+          <t>29.06.2019</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -17265,25 +17230,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Diana Stafsnes Califano</t>
+          <t>Maud Steinsdotter Nestgaard</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.23,04</t>
+          <t>1.23,33</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>29.06.2019</t>
+          <t>29.06.2014</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -17335,25 +17300,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Maud Steinsdotter Nestgaard</t>
+          <t>Ada Fludal Osland</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.23,33</t>
+          <t>1.23,85</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>29.06.2014</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -17370,25 +17335,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ada Fludal Osland</t>
+          <t>Silje Aadahl</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.23,85</t>
+          <t>1.25,12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>09.07.2017</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -17405,25 +17370,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Silje Aadahl</t>
+          <t>Malin Schanke Tømmervik</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.25,12</t>
+          <t>1.25,29</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>09.07.2017</t>
+          <t>13.06.2008</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -17440,16 +17405,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Malin Schanke Tømmervik</t>
+          <t>Julie Hegvik</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.25,29</t>
+          <t>1.26,52</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -17475,25 +17440,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Julie Hegvik</t>
+          <t>Othelie Annette Høie</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.26,52</t>
+          <t>1.27,27</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13.06.2008</t>
+          <t>29.08.2015</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -17510,25 +17475,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Othelie Annette Høie</t>
+          <t>Ingrid Johansen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.27,27</t>
+          <t>1.27,57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29.08.2015</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -17545,25 +17510,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ingrid Johansen</t>
+          <t>Marthe Kalvik</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.27,57</t>
+          <t>1.27,81</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>09.06.2006</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -17580,20 +17545,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Marthe Kalvik</t>
+          <t>Nora Yian Baldersheim</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.27,81</t>
+          <t>1.27,87</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09.06.2006</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -17615,20 +17580,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nora Yian Baldersheim</t>
+          <t>Lisa Ling Klauseth Liasjø</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.27,87</t>
+          <t>1.28,16</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>10.06.2017</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -17650,25 +17615,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lisa Ling Klauseth Liasjø</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.28,16</t>
+          <t>1.28,73</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.06.2017</t>
+          <t>24.04.2010</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -17685,25 +17650,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Linn Amalie Aresvik</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.28,73</t>
+          <t>1.28,94</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>24.04.2010</t>
+          <t>05.07.2012</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -17720,12 +17685,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Linn Amalie Aresvik</t>
+          <t>Emma Lu Tjeldvoll</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.28,94</t>
+          <t>1.28,95</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -17733,7 +17698,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>05.07.2012</t>
+          <t>02.07.2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -17755,25 +17720,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Emma Lu Tjeldvoll</t>
+          <t>Ingrid Elverum</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.28,95</t>
+          <t>1.29,88</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>02.07.2022</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -17790,12 +17755,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ingrid Elverum</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.29,88</t>
+          <t>1.20,03</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -17803,12 +17768,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>04.07.2013</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -17825,12 +17790,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Elise Nygård</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.20,03</t>
+          <t>1.29,88</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -17838,12 +17803,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>04.07.2013</t>
+          <t>24.04.2010</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -17860,25 +17825,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Elise Nygård</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.29,88</t>
+          <t>1.30,08</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>24.04.2010</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -17895,25 +17860,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Sissel Furuholt Valle</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.30,08</t>
+          <t>1.30,70</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -17930,20 +17895,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sissel Furuholt Valle</t>
+          <t>Thea Lervold Høffler</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.30,70</t>
+          <t>1.30,88</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>04.07.2013</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -17965,25 +17930,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Thea Lervold Høffler</t>
+          <t>Camilla Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.30,88</t>
+          <t>1.30,97</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>04.07.2013</t>
+          <t>29.06.2014</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -18000,25 +17965,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Camilla Dahle-Øfsti</t>
+          <t>Alisa Kulagina</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.30,97</t>
+          <t>1.31,45</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>29.06.2014</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -18070,25 +18035,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Alisa Kulagina</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.31,45</t>
+          <t>1.21,98</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -18105,16 +18070,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Thora Bjarnøe Brandsegg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.21,98</t>
+          <t>1.32,27</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -18140,25 +18105,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Thora Bjarnøe Brandsegg</t>
+          <t>Marie Skuseth</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.32,27</t>
+          <t>1.34,35</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>01.07.2023</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -18175,25 +18140,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Marie Skuseth</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.34,35</t>
+          <t>1.35,44</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>01.07.2023</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -18210,25 +18175,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Isabella Johanne Debik</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.35,44</t>
+          <t>1.37,07</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -18245,20 +18210,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Isabella Johanne Debik</t>
+          <t>Julie Wiik Arnesen</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.37,07</t>
+          <t>1.37,58</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -18280,16 +18245,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Julie Wiik Arnesen</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.37,58</t>
+          <t>1.40,06</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -18315,25 +18280,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.40,06</t>
+          <t>1.41,33</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -18350,25 +18315,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.41,33</t>
+          <t>1.41,72</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -18385,20 +18350,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.41,72</t>
+          <t>1.47,24</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -18420,25 +18385,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Guro Rønningen Osmoen</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.47,24</t>
+          <t>1.48,08</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -18455,16 +18420,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Guro Rønningen Osmoen</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.48,08</t>
+          <t>1.48,59</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -18490,25 +18455,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.48,59</t>
+          <t>1.50,65</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -18525,25 +18490,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.50,65</t>
+          <t>1.54,82</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -18560,20 +18525,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.54,82</t>
+          <t>2.04,68</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -18595,20 +18560,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.04,68</t>
+          <t>2.07,92</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -18630,25 +18595,25 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2.07,92</t>
+          <t>2.15,42</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -18665,25 +18630,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.15,42</t>
+          <t>2.27,19</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>19.04.2015</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -18700,25 +18665,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Karoline Skjevik</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.27,19</t>
+          <t>2.58,93</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>19.04.2015</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -18727,41 +18692,6 @@
         </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Karoline Skjevik</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2.58,93</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>29</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>08.01.2008</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
